--- a/normal/Excel 2021 Beginner to Advanced Course Files/Excel 2021 Intermediate Course Files/Instructor Files/Section 4/04-05-using-xlookup-and-xmatch.xlsx
+++ b/normal/Excel 2021 Beginner to Advanced Course Files/Excel 2021 Intermediate Course Files/Instructor Files/Section 4/04-05-using-xlookup-and-xmatch.xlsx
@@ -1,29 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f21e54c367d3358c/Documents/01 Work Files/05 SSIT/Online Courses/Excel 2021 Intermediate/Course Files/Section 4/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Excel_Learning\normal\Excel 2021 Beginner to Advanced Course Files\Excel 2021 Intermediate Course Files\Instructor Files\Section 4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{706A7769-628D-4E89-B165-F60081770C60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{28FAA366-4BEC-4D41-9F57-998CC4306787}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CBA4EC8-FC01-490C-86C3-57D9D4A3650D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{F834B0FE-07F0-4502-B9D6-DCEA0411B2B2}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F834B0FE-07F0-4502-B9D6-DCEA0411B2B2}"/>
   </bookViews>
   <sheets>
     <sheet name="XLOOKUP and XMATCH" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="App">'XLOOKUP and XMATCH'!$B$6:$B$17</definedName>
+    <definedName name="Category">'XLOOKUP and XMATCH'!$A$6:$A$17</definedName>
     <definedName name="Deb" hidden="1">{"FirstQ",#N/A,FALSE,"Budget2000";"SecondQ",#N/A,FALSE,"Budget2000"}</definedName>
     <definedName name="ee" localSheetId="0" hidden="1">{"FirstQ",#N/A,FALSE,"Budget2000";"SecondQ",#N/A,FALSE,"Budget2000";"Summary",#N/A,FALSE,"Budget2000"}</definedName>
     <definedName name="ee" hidden="1">{"FirstQ",#N/A,FALSE,"Budget2000";"SecondQ",#N/A,FALSE,"Budget2000";"Summary",#N/A,FALSE,"Budget2000"}</definedName>
     <definedName name="Fruits">#REF!</definedName>
     <definedName name="k" localSheetId="0" hidden="1">{"FirstQ",#N/A,FALSE,"Budget2000";"SecondQ",#N/A,FALSE,"Budget2000";"Summary",#N/A,FALSE,"Budget2000"}</definedName>
     <definedName name="k" hidden="1">{"FirstQ",#N/A,FALSE,"Budget2000";"SecondQ",#N/A,FALSE,"Budget2000";"Summary",#N/A,FALSE,"Budget2000"}</definedName>
+    <definedName name="Profit">'XLOOKUP and XMATCH'!$D$6:$D$17</definedName>
     <definedName name="q" localSheetId="0" hidden="1">{"FirstQ",#N/A,FALSE,"Budget2000";"SecondQ",#N/A,FALSE,"Budget2000";"Summary",#N/A,FALSE,"Budget2000"}</definedName>
     <definedName name="q" hidden="1">{"FirstQ",#N/A,FALSE,"Budget2000";"SecondQ",#N/A,FALSE,"Budget2000";"Summary",#N/A,FALSE,"Budget2000"}</definedName>
+    <definedName name="Revenue">'XLOOKUP and XMATCH'!$C$6:$C$17</definedName>
     <definedName name="rr" localSheetId="0" hidden="1">{"FirstQ",#N/A,FALSE,"Budget2000";"SecondQ",#N/A,FALSE,"Budget2000"}</definedName>
     <definedName name="rr" hidden="1">{"FirstQ",#N/A,FALSE,"Budget2000";"SecondQ",#N/A,FALSE,"Budget2000"}</definedName>
     <definedName name="rrr" localSheetId="0" hidden="1">{"AllDetail",#N/A,FALSE,"Research Budget";"1stQuarter",#N/A,FALSE,"Research Budget";"2nd Quarter",#N/A,FALSE,"Research Budget";"Summary",#N/A,FALSE,"Research Budget"}</definedName>
@@ -60,8 +64,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="45">
   <si>
     <t>Basic Example</t>
   </si>
@@ -178,6 +204,24 @@
   </si>
   <si>
     <t>The NEW! XLOOKUP and XMATCH Functions</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>create table from the data above</t>
+  </si>
+  <si>
+    <t>Ctrl + T</t>
+  </si>
+  <si>
+    <t>If App repeat</t>
+  </si>
+  <si>
+    <t>Using INDEX + XMATCH</t>
+  </si>
+  <si>
+    <t>Only using XMATCH</t>
   </si>
 </sst>
 </file>
@@ -185,7 +229,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -235,7 +279,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -266,8 +310,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -310,12 +366,108 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="7" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="7" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color theme="7" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="7" tint="-0.249977111117893"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="7" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color theme="7" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="7" tint="-0.249977111117893"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="7" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="7" tint="-0.249977111117893"/>
+      </left>
+      <right style="thin">
+        <color theme="7" tint="-0.249977111117893"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="7" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="7" tint="-0.249977111117893"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="7" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="7" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="7" tint="-0.249977111117893"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="7" tint="-0.249977111117893"/>
+      </left>
+      <right style="thin">
+        <color theme="7" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="7" tint="-0.249977111117893"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="7" tint="-0.249977111117893"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="7" tint="-0.249977111117893"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -327,14 +479,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -347,12 +496,206 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="8">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="7" tint="-0.249977111117893"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="7" tint="-0.249977111117893"/>
+        </top>
+        <bottom style="thin">
+          <color theme="7" tint="-0.249977111117893"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="7" tint="-0.249977111117893"/>
+        </left>
+        <right style="thin">
+          <color theme="7" tint="-0.249977111117893"/>
+        </right>
+        <top style="thin">
+          <color theme="7" tint="-0.249977111117893"/>
+        </top>
+        <bottom style="thin">
+          <color theme="7" tint="-0.249977111117893"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="7" tint="-0.249977111117893"/>
+        </left>
+        <right style="thin">
+          <color theme="7" tint="-0.249977111117893"/>
+        </right>
+        <top style="thin">
+          <color theme="7" tint="-0.249977111117893"/>
+        </top>
+        <bottom style="thin">
+          <color theme="7" tint="-0.249977111117893"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="7" tint="-0.249977111117893"/>
+        </right>
+        <top style="thin">
+          <color theme="7" tint="-0.249977111117893"/>
+        </top>
+        <bottom style="thin">
+          <color theme="7" tint="-0.249977111117893"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="7" tint="-0.249977111117893"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="7" tint="-0.249977111117893"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="7" tint="-0.249977111117893"/>
+        </left>
+        <right style="thin">
+          <color theme="7" tint="-0.249977111117893"/>
+        </right>
+        <top style="thin">
+          <color theme="7" tint="-0.249977111117893"/>
+        </top>
+        <bottom style="thin">
+          <color theme="7" tint="-0.249977111117893"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="7" tint="-0.249977111117893"/>
+        </left>
+        <right style="thin">
+          <color theme="7" tint="-0.249977111117893"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -363,6 +706,19 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C4406071-96B6-4EF4-AC0A-39E42EA56D22}" name="Apps_list" displayName="Apps_list" ref="A5:D17" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="5" tableBorderDxfId="6" totalsRowBorderDxfId="4">
+  <autoFilter ref="A5:D17" xr:uid="{C4406071-96B6-4EF4-AC0A-39E42EA56D22}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{8451BCD9-3F8C-4FDF-8486-D6ADFF20FABA}" name="Category" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{64FE3875-9DAF-48E9-8BC4-B2D3161C1DA9}" name="App" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{8613131A-1F69-45DD-B27E-A046F1CEDC81}" name="Revenue" dataDxfId="1" dataCellStyle="Currency"/>
+    <tableColumn id="4" xr3:uid="{6383DAFE-A431-4544-8E33-1900273CB067}" name="Profit" dataDxfId="0" dataCellStyle="Currency"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -665,10 +1021,10 @@
   <sheetPr>
     <tabColor theme="7" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:I34"/>
+  <dimension ref="A1:L43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -683,14 +1039,14 @@
     <col min="8" max="8" width="21.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
     </row>
-    <row r="3" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -702,191 +1058,236 @@
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="7" t="s">
         <v>5</v>
       </c>
       <c r="H5" s="6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="9" t="s">
+      <c r="J5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="9">
         <v>11649</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="21">
         <v>802</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="G6" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="H6" s="12"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="9" t="s">
+      <c r="H6" s="11" t="str">
+        <f>_xlfn.XLOOKUP(H5,B6:B17,A6:A17,"Not Found",0,1)</f>
+        <v>Productivity</v>
+      </c>
+      <c r="J6" t="str" cm="1">
+        <f t="array" ref="J6">INDEX(Apps_list[Category],_xlfn.XMATCH(H5,App,0,-1))</f>
+        <v>Utility</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="9">
         <v>7718</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="21">
         <v>876</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="G7" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="10"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="9" t="s">
+      <c r="H7" s="9">
+        <f>_xlfn.XLOOKUP(H5,Apps_list[App],Apps_list[Profit],,0,1)</f>
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="9">
         <v>15033</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="21">
         <v>469</v>
       </c>
-      <c r="G8" s="11"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="9" t="s">
+      <c r="G8" s="10"/>
+      <c r="J8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="9">
         <v>18700.5</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="21">
         <v>984.90000000000009</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="G9" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="H9" s="10"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="9" t="s">
+      <c r="H9" s="9">
+        <f>_xlfn.XLOOKUP(H5,App,Revenue,,0,-1)</f>
+        <v>50000</v>
+      </c>
+      <c r="J9">
+        <f xml:space="preserve"> _xlfn.XMATCH(H5,App,0,1)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="9">
         <v>14432</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="21">
         <v>240</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="9" t="s">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11" s="9">
         <v>17990</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11" s="21">
         <v>1166</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="9" t="s">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12" s="9">
         <v>11022</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="21">
         <v>550</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="9" t="s">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="10">
+      <c r="C13" s="9">
         <v>17760</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D13" s="21">
         <v>800</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="9" t="s">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="10">
+      <c r="C14" s="9">
         <v>30399.599999999999</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D14" s="21">
         <v>786.8</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="9" t="s">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="10">
+      <c r="C15" s="9">
         <v>20400</v>
       </c>
-      <c r="D15" s="10">
+      <c r="D15" s="21">
         <v>614.40000000000009</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="9" t="s">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="10">
+      <c r="C16" s="28">
         <v>60000</v>
       </c>
-      <c r="D16" s="10">
+      <c r="D16" s="29">
         <v>10000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="33">
+        <v>50000</v>
+      </c>
+      <c r="D17" s="34">
+        <v>5000</v>
+      </c>
+      <c r="E17" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="17.399999999999999" hidden="1" x14ac:dyDescent="0.35">
@@ -903,13 +1304,13 @@
     </row>
     <row r="19" spans="1:9" ht="17.399999999999999" hidden="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
     </row>
     <row r="20" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="C20" t="str">
@@ -930,45 +1331,45 @@
       </c>
     </row>
     <row r="21" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="C21" s="14" t="s">
+      <c r="C21" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D21" s="14" t="s">
+      <c r="D21" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="E21" s="14" t="s">
+      <c r="E21" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="F21" s="14" t="s">
+      <c r="F21" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="H21" s="15" t="s">
+      <c r="H21" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="I21" s="15" t="s">
+      <c r="I21" s="14" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="14" t="s">
+      <c r="A22" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="14" t="s">
+      <c r="B22" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="14" t="s">
+      <c r="C22" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D22" s="14" t="s">
+      <c r="D22" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="E22" s="14" t="s">
+      <c r="E22" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="F22" s="14" t="s">
+      <c r="F22" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="I22" s="16" t="s">
+      <c r="I22" s="15" t="s">
         <v>3</v>
       </c>
     </row>
@@ -979,22 +1380,22 @@
       <c r="B23" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="17">
+      <c r="C23" s="16">
         <v>11649</v>
       </c>
-      <c r="D23" s="17">
+      <c r="D23" s="16">
         <v>802</v>
       </c>
-      <c r="E23" s="17">
+      <c r="E23" s="16">
         <v>10593</v>
       </c>
-      <c r="F23" s="17">
+      <c r="F23" s="16">
         <v>554</v>
       </c>
-      <c r="H23" s="18" t="s">
+      <c r="H23" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="I23" s="19"/>
+      <c r="I23" s="18"/>
     </row>
     <row r="24" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
@@ -1003,16 +1404,16 @@
       <c r="B24" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="17">
+      <c r="C24" s="16">
         <v>7718</v>
       </c>
-      <c r="D24" s="17">
+      <c r="D24" s="16">
         <v>876</v>
       </c>
-      <c r="E24" s="17">
+      <c r="E24" s="16">
         <v>6409</v>
       </c>
-      <c r="F24" s="17">
+      <c r="F24" s="16">
         <v>654</v>
       </c>
     </row>
@@ -1023,16 +1424,16 @@
       <c r="B25" t="s">
         <v>29</v>
       </c>
-      <c r="C25" s="17">
+      <c r="C25" s="16">
         <v>15033</v>
       </c>
-      <c r="D25" s="17">
+      <c r="D25" s="16">
         <v>469</v>
       </c>
-      <c r="E25" s="17">
+      <c r="E25" s="16">
         <v>12724</v>
       </c>
-      <c r="F25" s="17">
+      <c r="F25" s="16">
         <v>530</v>
       </c>
     </row>
@@ -1043,22 +1444,22 @@
       <c r="B26" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="17">
+      <c r="C26" s="16">
         <v>18700.5</v>
       </c>
-      <c r="D26" s="17">
+      <c r="D26" s="16">
         <v>984.90000000000009</v>
       </c>
-      <c r="E26" s="17">
+      <c r="E26" s="16">
         <v>19101.600000000002</v>
       </c>
-      <c r="F26" s="17">
+      <c r="F26" s="16">
         <v>1302</v>
       </c>
-      <c r="H26" s="15" t="s">
+      <c r="H26" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="I26" s="20"/>
+      <c r="I26" s="19"/>
     </row>
     <row r="27" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
@@ -1067,19 +1468,19 @@
       <c r="B27" t="s">
         <v>27</v>
       </c>
-      <c r="C27" s="17">
+      <c r="C27" s="16">
         <v>14432</v>
       </c>
-      <c r="D27" s="17">
+      <c r="D27" s="16">
         <v>240</v>
       </c>
-      <c r="E27" s="17">
+      <c r="E27" s="16">
         <v>15113</v>
       </c>
-      <c r="F27" s="17">
+      <c r="F27" s="16">
         <v>363</v>
       </c>
-      <c r="I27" s="19"/>
+      <c r="I27" s="18"/>
     </row>
     <row r="28" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
@@ -1088,16 +1489,16 @@
       <c r="B28" t="s">
         <v>32</v>
       </c>
-      <c r="C28" s="17">
+      <c r="C28" s="16">
         <v>17990</v>
       </c>
-      <c r="D28" s="17">
+      <c r="D28" s="16">
         <v>1166</v>
       </c>
-      <c r="E28" s="17">
+      <c r="E28" s="16">
         <v>18181</v>
       </c>
-      <c r="F28" s="17">
+      <c r="F28" s="16">
         <v>1223</v>
       </c>
     </row>
@@ -1108,16 +1509,16 @@
       <c r="B29" t="s">
         <v>33</v>
       </c>
-      <c r="C29" s="17">
+      <c r="C29" s="16">
         <v>11022</v>
       </c>
-      <c r="D29" s="17">
+      <c r="D29" s="16">
         <v>550</v>
       </c>
-      <c r="E29" s="17">
+      <c r="E29" s="16">
         <v>13112</v>
       </c>
-      <c r="F29" s="17">
+      <c r="F29" s="16">
         <v>474</v>
       </c>
     </row>
@@ -1128,16 +1529,16 @@
       <c r="B30" t="s">
         <v>35</v>
       </c>
-      <c r="C30" s="17">
+      <c r="C30" s="16">
         <v>17760</v>
       </c>
-      <c r="D30" s="17">
+      <c r="D30" s="16">
         <v>800</v>
       </c>
-      <c r="E30" s="17">
+      <c r="E30" s="16">
         <v>16854</v>
       </c>
-      <c r="F30" s="17">
+      <c r="F30" s="16">
         <v>572</v>
       </c>
     </row>
@@ -1148,16 +1549,16 @@
       <c r="B31" t="s">
         <v>36</v>
       </c>
-      <c r="C31" s="17">
+      <c r="C31" s="16">
         <v>30399.599999999999</v>
       </c>
-      <c r="D31" s="17">
+      <c r="D31" s="16">
         <v>786.8</v>
       </c>
-      <c r="E31" s="17">
+      <c r="E31" s="16">
         <v>30237.199999999997</v>
       </c>
-      <c r="F31" s="17">
+      <c r="F31" s="16">
         <v>932.4</v>
       </c>
     </row>
@@ -1168,25 +1569,35 @@
       <c r="B32" t="s">
         <v>37</v>
       </c>
-      <c r="C32" s="17">
+      <c r="C32" s="16">
         <v>20400</v>
       </c>
-      <c r="D32" s="17">
+      <c r="D32" s="16">
         <v>614.40000000000009</v>
       </c>
-      <c r="E32" s="17">
+      <c r="E32" s="16">
         <v>18476.8</v>
       </c>
-      <c r="F32" s="17">
+      <c r="F32" s="16">
         <v>1120</v>
       </c>
     </row>
-    <row r="33" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="34" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="33" spans="1:1" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="34" spans="1:1" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" s="30" t="s">
+        <v>41</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5" xr:uid="{B4E93922-FCAF-404E-BF14-6A7D73BF1182}">
-      <formula1>$B$6:$B$16</formula1>
+      <formula1>$B$6:$B$17</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I21" xr:uid="{EB1C77DC-E967-4FD1-A25E-D0BF7EDA50AE}">
       <formula1>$D$21:$E$21</formula1>
@@ -1199,5 +1610,8 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>